--- a/vft_unit_list.xlsx.xlsx
+++ b/vft_unit_list.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SorinoSK\School\Internship\Work\IoT\Intern-IoT-Data-Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23737712-CBFC-44FE-9E4D-451081C5A9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE8C89A-837F-43EA-9F1B-5044D8A99F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26085" yWindow="1380" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="1185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>5kW - Unit 1 Backup 1</t>
   </si>
@@ -428,7 +428,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,6 +596,12 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E12" s="1">
+        <v>390</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
